--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -22,31 +22,31 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Спринт 1 - "Игровой движок"</t>
-  </si>
-  <si>
-    <t>Спринт 2 - "Создание мира"</t>
-  </si>
-  <si>
-    <t>Спринт 3 - "Взаимодействие с объектами"</t>
-  </si>
-  <si>
-    <t>Спринт 4  - «Добавление врагов»</t>
-  </si>
-  <si>
-    <t>Спринт 5 — "Меню и выбор уровня"</t>
-  </si>
-  <si>
-    <t>Спринт 6 — "Последний шаг"</t>
-  </si>
-  <si>
-    <t>Спринт 7 — "Последний шаг"</t>
-  </si>
-  <si>
-    <t>Спринт 8 — "Последний шаг"</t>
-  </si>
-  <si>
-    <t>Спринт 9 — "Последний шаг"</t>
+    <t>Спринт 1 </t>
+  </si>
+  <si>
+    <t>Спринт 2 </t>
+  </si>
+  <si>
+    <t>Спринт 3 </t>
+  </si>
+  <si>
+    <t>Спринт 4  </t>
+  </si>
+  <si>
+    <t>Спринт 5 </t>
+  </si>
+  <si>
+    <t>Спринт 6 </t>
+  </si>
+  <si>
+    <t>Спринт 7 </t>
+  </si>
+  <si>
+    <t>Спринт 8 </t>
+  </si>
+  <si>
+    <t>Спринт 9 </t>
   </si>
   <si>
     <t>Дата конца</t>
@@ -124,7 +124,7 @@
     <t>Добавляются новые уровни.</t>
   </si>
   <si>
-    <t>Появляется меню с разделами: выбор уровня, настройки. </t>
+    <t>Появляется меню с разделами: выбор уровня, настройки.</t>
   </si>
   <si>
     <t>Добавление звука. Добавление покупки кораблей и/или апгрейдов.</t>
@@ -806,7 +806,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -879,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -22,31 +22,31 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Спринт 1 </t>
-  </si>
-  <si>
-    <t>Спринт 2 </t>
-  </si>
-  <si>
-    <t>Спринт 3 </t>
-  </si>
-  <si>
-    <t>Спринт 4  </t>
-  </si>
-  <si>
-    <t>Спринт 5 </t>
-  </si>
-  <si>
-    <t>Спринт 6 </t>
-  </si>
-  <si>
-    <t>Спринт 7 </t>
-  </si>
-  <si>
-    <t>Спринт 8 </t>
-  </si>
-  <si>
-    <t>Спринт 9 </t>
+    <t>Спринт 1</t>
+  </si>
+  <si>
+    <t>Спринт 2</t>
+  </si>
+  <si>
+    <t>Спринт 3</t>
+  </si>
+  <si>
+    <t>Спринт 4</t>
+  </si>
+  <si>
+    <t>Спринт 5</t>
+  </si>
+  <si>
+    <t>Спринт 6</t>
+  </si>
+  <si>
+    <t>Спринт 7</t>
+  </si>
+  <si>
+    <t>Спринт 8</t>
+  </si>
+  <si>
+    <t>Спринт 9</t>
   </si>
   <si>
     <t>Дата конца</t>
@@ -91,10 +91,10 @@
     <t>хп бар, щиты, инвентарь</t>
   </si>
   <si>
-    <t>Новые уровни, новые объекты на карте</t>
-  </si>
-  <si>
-    <t>Меню</t>
+    <t>ИИ для врагов. </t>
+  </si>
+  <si>
+    <t>Меню, пауза, рестарт.</t>
   </si>
   <si>
     <t>добавление звука, покупка/улучшение кораблей.</t>
@@ -121,10 +121,10 @@
     <t>Возможность видеть на экране полоску здоровья, щитов, а так же инвентарь.</t>
   </si>
   <si>
-    <t>Добавляются новые уровни.</t>
-  </si>
-  <si>
-    <t>Появляется меню с разделами: выбор уровня, настройки.</t>
+    <t>у врагов появляется интеллект</t>
+  </si>
+  <si>
+    <t>Появляется меню с разделами, кнопка пауза и рестарт.</t>
   </si>
   <si>
     <t>Добавление звука. Добавление покупки кораблей и/или апгрейдов.</t>
@@ -142,7 +142,7 @@
     <t>Отрисовка космоса, добавление астероидов, врагов</t>
   </si>
   <si>
-    <t>ИИ для врагов. Анимация выстрелов, взрывов. Коллизии.</t>
+    <t>Анимация выстрелов, взрывов. Коллизии.</t>
   </si>
   <si>
     <t>Кнопка ускорения, при отпускании клавиш корабль замедляется.</t>
@@ -151,10 +151,10 @@
     <t>Отображение хп, при столкновении или попадании хп уменьшается. При нажатии на  кнопку активируются Щиты. Когда щит активен урон не проходит. Статичный Инвентарь.</t>
   </si>
   <si>
-    <t>Загрузка новых карт, врагов, эффектов. С врагов выпадают различные плюшки.</t>
-  </si>
-  <si>
-    <t>Создание кнопки «выбор уровня». При нажатии переход в следующее окно, где осуществляется выбор уровня. Аналогично с настройками.</t>
+    <t>Враги преследуют корабль игрока, если он слишком близко, то враги его облетают.</t>
+  </si>
+  <si>
+    <t>Создание кнопки пауза, рестарт. Добавить меню.</t>
   </si>
   <si>
     <t>Звуки при выстрелах, при взрывах, фоновая музыка. меню: выбор уровня (карта с выбором уровня), покупка/апгрейд корабля, настройки, выход.</t>
@@ -276,7 +276,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -336,6 +336,11 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -621,7 +626,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,23 +691,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,43 +723,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,11 +799,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,7 +815,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -879,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -984,7 +993,7 @@
       <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -992,140 +1001,140 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
@@ -1152,49 +1161,49 @@
       <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -1216,49 +1225,49 @@
       <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -1285,109 +1294,109 @@
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -1458,7 +1467,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.62753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="41" width="28"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="28"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.62753036437247"/>
   </cols>
   <sheetData>
@@ -1494,40 +1503,40 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
